--- a/public/cohort/fileExcel/xlsxUIT/NE PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/NE PTA en onderwijsprogramma.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -254,10 +254,7 @@
     <t>H</t>
   </si>
   <si>
-    <t>Schrijven recensie, betoog met uiteenzettende elementen, (boek 1) inclusief verhaalanalyse</t>
-  </si>
-  <si>
-    <t>C,  E</t>
+    <t>SE schrijven recensie, betoog met uiteenzettende elementen, (boek 1) inclusief verhaalanalyse</t>
   </si>
   <si>
     <t>literatuurgeschiedenis</t>
@@ -266,31 +263,28 @@
     <t>Presenteren en literatuur: duopresentatie over een literair werk (boek 2).</t>
   </si>
   <si>
-    <t>B, E</t>
-  </si>
-  <si>
     <t>lezen en argumenteren</t>
   </si>
   <si>
     <t>argumenteren en debat</t>
   </si>
   <si>
-    <t>Een opdracht over twee literaire werken die gekozen worden uit de verplichte lijst voor havo 4 (boek 3 en 4).</t>
-  </si>
-  <si>
-    <t>F</t>
+    <t xml:space="preserve">
+Een opdracht over twee literaire werken die gekozen worden uit de
+verplichte lijst voor havo 4 (boek 3 en 4).  </t>
   </si>
   <si>
     <t>Formuleren en spellen</t>
   </si>
   <si>
-    <t>C</t>
+    <t xml:space="preserve">Tekstanalyse en argumenteren
+ </t>
   </si>
   <si>
-    <t>Tekstanalyse en argumenteren</t>
+    <t>Beschouwing op basis van een dossier. Het volledige dossier moet op een nader te bepalen tijdstip persoonlijk overhandigd worden aan de docent. Levert een leerling van tevoren geen dossier in, of op de dag van het SE, dan is het maximaal te behalen cijfer een 4,0.</t>
   </si>
   <si>
-    <t>A, D</t>
+    <t>Mondeling literatuur, over vier gelezen moderne werken vanaf 1940 op basis van een dossier. Het volledige dossier moet op een nader te bepalen tijdstip persoonlijk overhandigd worden aan de docent. Levert een leerling van tevoren geen leesdossier in, of op de dag van het mondeling, dan is het maximaal te behalen cijfer een 4,0.</t>
   </si>
   <si>
     <t>A</t>
@@ -311,9 +305,6 @@
     <t>Opdracht bij 3 moderne werken, periode 1940 tot heden</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>tekstverklaring en argumenteren</t>
   </si>
   <si>
@@ -323,13 +314,19 @@
     <t>project</t>
   </si>
   <si>
-    <t>Tekstverklaring en argumenteren</t>
+    <t>Betoog met uiteenzettende elementen op basis van een dossier Het volledige dossier moet op een nader te bepalen tijdstip persoonlijk overhandigd worden aan de docent. Levert een leerling van tevoren geen dossier in, of op de dag van het SE, dan is het maximaal te behalen cijfer een 4,0.</t>
+  </si>
+  <si>
+    <t>Literatuur: mondeling literatuur o.b.v. leesdossier. Vier literaire werken na 1940 en een uit de 19e eeuw.  Het volledige dossier moet op een nader te bepalen tijdstip persoonlijk overhandigd worden aan de docent. Levert een leerling van tevoren geen leesdossier in, of op de dag van het mondeling, dan is het maximaal te behalen cijfer een 4,0.</t>
+  </si>
+  <si>
+    <t>Beschouwing en reflectieverslag met behulp van een dossier.  Het volledige dossier moet op een nader te bepalen tijdstip persoonlijk overhandigd worden aan de docent. Levert een leerling van tevoren geen dossier in, of op de dag van het SE, dan is het maximaal te behalen cijfer een 4,0.</t>
   </si>
   <si>
     <t>Debat</t>
   </si>
   <si>
-    <t>B, F</t>
+    <t xml:space="preserve">Mondeling literatuur o.b.v. leesdossier: drie moderne werken vanaf 1940 en een historisch werk (1880 â 1940). Het volledige dossier moet op een nader te bepalen tijdstip persoonlijk overhandigd worden aan de docent. Levert een leerling van tevoren geen leesdossier in, of op de dag van het mondeling, dan is het maximaal te behalen cijfer een 4,0. </t>
   </si>
 </sst>
 </file>
@@ -1346,7 +1343,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1354,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I6" s="27">
         <v>1</v>
@@ -1373,9 +1370,7 @@
       <c r="O6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="32">
-        <v>0</v>
-      </c>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
@@ -1390,7 +1385,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I7" s="27">
         <v>2</v>
@@ -1409,9 +1404,7 @@
       <c r="O7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="32">
-        <v>0</v>
-      </c>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
@@ -1426,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I8" s="27">
         <v>2</v>
@@ -1445,9 +1438,7 @@
       <c r="O8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="32">
-        <v>0</v>
-      </c>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -1463,7 +1454,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I9" s="27">
         <v>2</v>
@@ -1482,9 +1473,7 @@
       <c r="O9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="32">
-        <v>0</v>
-      </c>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -1492,7 +1481,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633287037</v>
+        <v>44335.808414352</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1500,7 +1489,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I10" s="27">
         <v>2</v>
@@ -1519,9 +1508,7 @@
       <c r="O10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="32">
-        <v>0</v>
-      </c>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -1537,7 +1524,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I11" s="27">
         <v>2</v>
@@ -1558,9 +1545,7 @@
       <c r="O11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="32" t="s">
-        <v>94</v>
-      </c>
+      <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
@@ -2262,7 +2247,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2376,7 +2361,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633287037</v>
+        <v>44335.808414352</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2531,7 +2516,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I18" s="27">
         <v>2</v>
@@ -2550,9 +2535,7 @@
       <c r="O18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="32">
-        <v>0</v>
-      </c>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
@@ -2561,7 +2544,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I19" s="27">
         <v>2</v>
@@ -2580,9 +2563,7 @@
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="32">
-        <v>0</v>
-      </c>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
@@ -2591,7 +2572,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I20" s="27">
         <v>2</v>
@@ -2608,9 +2589,7 @@
       <c r="O20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="32">
-        <v>0</v>
-      </c>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -2619,7 +2598,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I21" s="27">
         <v>2</v>
@@ -2638,51 +2617,65 @@
       <c r="O21" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="32">
-        <v>0</v>
-      </c>
+      <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="G22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="27"/>
+      <c r="G22" s="27">
+        <v>4</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="27">
+        <v>2</v>
+      </c>
       <c r="J22" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K22" s="30"/>
-      <c r="L22" s="27"/>
+      <c r="L22" s="27">
+        <v>100</v>
+      </c>
       <c r="M22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N22" s="31">
+        <v>5</v>
+      </c>
       <c r="O22" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="G23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="27"/>
+      <c r="G23" s="27">
+        <v>4</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="I23" s="27">
+        <v>2</v>
+      </c>
       <c r="J23" s="29" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K23" s="30"/>
-      <c r="L23" s="27"/>
+      <c r="L23" s="27">
+        <v>50</v>
+      </c>
       <c r="M23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N23" s="31">
+        <v>10</v>
+      </c>
       <c r="O23" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P23" s="32"/>
     </row>
@@ -3158,7 +3151,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3272,7 +3265,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633287037</v>
+        <v>44335.808414352</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3632,7 +3625,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="29" t="s">
@@ -3651,9 +3644,7 @@
       <c r="O30" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P30" s="32" t="s">
-        <v>85</v>
-      </c>
+      <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2"/>
@@ -3662,11 +3653,11 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="K31" s="30"/>
       <c r="L31" s="27">
@@ -3681,81 +3672,89 @@
       <c r="O31" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P31" s="32" t="s">
-        <v>87</v>
-      </c>
+      <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="G32" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="I32" s="27"/>
       <c r="J32" s="29" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K32" s="30"/>
       <c r="L32" s="27">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M32" s="27" t="s">
         <v>8</v>
       </c>
       <c r="N32" s="31">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O32" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P32" s="32" t="s">
-        <v>100</v>
-      </c>
+      <c r="P32" s="32"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="G33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="28"/>
+      <c r="G33" s="27">
+        <v>3</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>97</v>
+      </c>
       <c r="I33" s="27"/>
       <c r="J33" s="29" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K33" s="30"/>
-      <c r="L33" s="27"/>
+      <c r="L33" s="27">
+        <v>50</v>
+      </c>
       <c r="M33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N33" s="31">
+        <v>15</v>
+      </c>
       <c r="O33" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P33" s="32"/>
     </row>
     <row r="34" spans="1:17" customHeight="1" ht="72">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="G34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="28"/>
+      <c r="G34" s="27">
+        <v>3</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>98</v>
+      </c>
       <c r="I34" s="27"/>
       <c r="J34" s="29" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K34" s="30"/>
-      <c r="L34" s="27"/>
+      <c r="L34" s="27">
+        <v>50</v>
+      </c>
       <c r="M34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N34" s="31">
+        <v>15</v>
+      </c>
       <c r="O34" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P34" s="32"/>
     </row>
@@ -4152,7 +4151,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633287037</v>
+        <v>44335.808414352</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5107,7 +5106,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633287037</v>
+        <v>44335.808414352</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5923,7 +5922,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633287037</v>
+        <v>44335.808414352</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6739,7 +6738,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633287037</v>
+        <v>44335.808414352</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7480,9 +7479,7 @@
       <c r="O6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="32" t="s">
-        <v>76</v>
-      </c>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
@@ -7497,7 +7494,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I7" s="27">
         <v>2</v>
@@ -7514,9 +7511,7 @@
       <c r="O7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="32">
-        <v>0</v>
-      </c>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
@@ -7531,7 +7526,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I8" s="27">
         <v>2</v>
@@ -7552,9 +7547,7 @@
       <c r="O8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="32" t="s">
-        <v>79</v>
-      </c>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -7570,7 +7563,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I9" s="27">
         <v>2</v>
@@ -7589,9 +7582,7 @@
       <c r="O9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="32">
-        <v>0</v>
-      </c>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -7599,7 +7590,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633287037</v>
+        <v>44335.808414352</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7607,7 +7598,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I10" s="27">
         <v>2</v>
@@ -7626,9 +7617,7 @@
       <c r="O10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="32">
-        <v>0</v>
-      </c>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -7644,7 +7633,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I11" s="27">
         <v>2</v>
@@ -7665,9 +7654,7 @@
       <c r="O11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="32" t="s">
-        <v>83</v>
-      </c>
+      <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
@@ -8483,7 +8470,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633287037</v>
+        <v>44335.808414352</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8638,7 +8625,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
@@ -8657,9 +8644,7 @@
       <c r="O18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="32" t="s">
-        <v>85</v>
-      </c>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
@@ -8668,7 +8653,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
@@ -8687,51 +8672,61 @@
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="32" t="s">
-        <v>87</v>
-      </c>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
+      <c r="G20" s="27">
+        <v>3</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>83</v>
+      </c>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
+      <c r="L20" s="27">
+        <v>100</v>
+      </c>
       <c r="M20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>20</v>
+      </c>
       <c r="O20" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="28"/>
+      <c r="G21" s="27">
+        <v>3</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>84</v>
+      </c>
       <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K21" s="30"/>
-      <c r="L21" s="27"/>
+      <c r="L21" s="27">
+        <v>50</v>
+      </c>
       <c r="M21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N21" s="31">
+        <v>15</v>
+      </c>
       <c r="O21" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P21" s="32"/>
     </row>
@@ -9355,7 +9350,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633287037</v>
+        <v>44335.808414352</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/NE PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/NE PTA en onderwijsprogramma.xlsx
@@ -308,7 +308,7 @@
     <t>tekstverklaring en argumenteren</t>
   </si>
   <si>
-    <t>proza en poÃ«zie</t>
+    <t>proza en poëzie</t>
   </si>
   <si>
     <t>project</t>
@@ -326,7 +326,7 @@
     <t>Debat</t>
   </si>
   <si>
-    <t xml:space="preserve">Mondeling literatuur o.b.v. leesdossier: drie moderne werken vanaf 1940 en een historisch werk (1880 â 1940). Het volledige dossier moet op een nader te bepalen tijdstip persoonlijk overhandigd worden aan de docent. Levert een leerling van tevoren geen leesdossier in, of op de dag van het mondeling, dan is het maximaal te behalen cijfer een 4,0. </t>
+    <t xml:space="preserve">Mondeling literatuur o.b.v. leesdossier: drie moderne werken vanaf 1940 en een historisch werk (1880 – 1940). Het volledige dossier moet op een nader te bepalen tijdstip persoonlijk overhandigd worden aan de docent. Levert een leerling van tevoren geen leesdossier in, of op de dag van het mondeling, dan is het maximaal te behalen cijfer een 4,0. </t>
   </si>
 </sst>
 </file>
@@ -1345,7 +1345,9 @@
       <c r="B6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>17</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -1379,7 +1381,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>18</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>1</v>
@@ -1413,7 +1417,9 @@
       <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>19</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>2</v>
@@ -1448,7 +1454,9 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>20</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>3</v>
@@ -1481,9 +1489,11 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808414352</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44336.445706019</v>
+      </c>
+      <c r="D10" s="2">
+        <v>21</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="G10" s="27">
         <v>4</v>
@@ -1518,7 +1528,9 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>22</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="G11" s="27">
         <v>4</v>
@@ -1567,7 +1579,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>7</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag A4 (schooljaar 2020 - 2021)</v>
@@ -1587,9 +1601,7 @@
         <f>4+B11-B7</f>
         <v>4</v>
       </c>
-      <c r="G14" s="34">
-        <v>0</v>
-      </c>
+      <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -1781,7 +1793,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>8</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag A5 (schooljaar 2021 - 2022)</v>
@@ -1986,7 +2000,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>9</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag A6 (schooljaar 2022 - 2023)</v>
@@ -2361,7 +2377,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808414352</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2433,7 +2449,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>10</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag A4 (schooljaar 2019 - 2020)</v>
@@ -2510,7 +2528,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>23</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
         <v>1</v>
@@ -2538,7 +2558,9 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>24</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
         <v>2</v>
@@ -2566,7 +2588,9 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>25</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
         <v>2</v>
@@ -2592,7 +2616,9 @@
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>26</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="G21" s="27">
         <v>3</v>
@@ -2620,7 +2646,9 @@
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>27</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="G22" s="27">
         <v>4</v>
@@ -2650,7 +2678,9 @@
       <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>28</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="G23" s="27">
         <v>4</v>
@@ -2683,7 +2713,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>11</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag A5 (schooljaar 2020 - 2021)</v>
@@ -2696,9 +2728,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34">
-        <v>0</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -2890,7 +2920,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>12</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag A6 (schooljaar 2021 - 2022)</v>
@@ -3265,7 +3297,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808414352</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3337,7 +3369,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>13</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag A4 (schooljaar 2018 - 2019)</v>
@@ -3549,7 +3583,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>14</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag A5 (schooljaar 2019 - 2020)</v>
@@ -3619,7 +3655,9 @@
       </c>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>29</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="G30" s="27">
         <v>1</v>
@@ -3647,7 +3685,9 @@
       <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>30</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="G31" s="27">
         <v>2</v>
@@ -3675,7 +3715,9 @@
       <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>31</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="G32" s="27">
         <v>2</v>
@@ -3703,7 +3745,9 @@
       <c r="P32" s="32"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
-      <c r="D33" s="2"/>
+      <c r="D33" s="2">
+        <v>32</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="G33" s="27">
         <v>3</v>
@@ -3731,7 +3775,9 @@
       <c r="P33" s="32"/>
     </row>
     <row r="34" spans="1:17" customHeight="1" ht="72">
-      <c r="D34" s="2"/>
+      <c r="D34" s="2">
+        <v>33</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="G34" s="27">
         <v>3</v>
@@ -3784,7 +3830,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>15</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag A6 (schooljaar 2020 - 2021)</v>
@@ -3797,9 +3845,7 @@
       <c r="M37" s="33"/>
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34">
-        <v>0</v>
-      </c>
+      <c r="G38" s="34"/>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
       <c r="J38" s="34"/>
@@ -4151,7 +4197,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808414352</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5106,7 +5152,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808414352</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5922,7 +5968,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808414352</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6738,7 +6784,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808414352</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7452,7 +7498,9 @@
       <c r="B6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>7</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -7488,7 +7536,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>8</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>2</v>
@@ -7520,7 +7570,9 @@
       <c r="B8" s="2">
         <v>2</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>9</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>3</v>
@@ -7557,7 +7609,9 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2022</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>10</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>3</v>
@@ -7590,9 +7644,11 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808414352</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44336.445706019</v>
+      </c>
+      <c r="D10" s="2">
+        <v>11</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="G10" s="27">
         <v>4</v>
@@ -7627,7 +7683,9 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>12</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="G11" s="27">
         <v>4</v>
@@ -7676,7 +7734,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag H4 (schooljaar 2020 - 2021)</v>
@@ -7696,9 +7756,7 @@
         <f>4+B11-B7</f>
         <v>4</v>
       </c>
-      <c r="G14" s="34">
-        <v>0</v>
-      </c>
+      <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -7890,7 +7948,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>4</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag H5 (schooljaar 2021 - 2022)</v>
@@ -8470,7 +8530,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808414352</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8542,7 +8602,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag H4 (schooljaar 2019 - 2020)</v>
@@ -8619,7 +8681,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>13</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
         <v>1</v>
@@ -8647,7 +8711,9 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>14</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
         <v>2</v>
@@ -8675,7 +8741,9 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>15</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
         <v>3</v>
@@ -8703,7 +8771,9 @@
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>16</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="G21" s="27">
         <v>3</v>
@@ -8778,7 +8848,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>6</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag H5 (schooljaar 2020 - 2021)</v>
@@ -8791,9 +8863,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34">
-        <v>0</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -9350,7 +9420,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808414352</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/NE PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/NE PTA en onderwijsprogramma.xlsx
@@ -3,23 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <workbookProtection lockRevision="false" lockStructure="true" lockWindows="false"/>
   <bookViews>
-    <workbookView activeTab="11" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="12" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="instellingen" sheetId="1" r:id="rId4"/>
-    <sheet name="sjabloon" sheetId="2" r:id="rId5"/>
-    <sheet name="wensen" sheetId="3" r:id="rId6"/>
+    <sheet name="instructie" sheetId="2" r:id="rId5"/>
+    <sheet name="sjabloon" sheetId="3" r:id="rId6"/>
     <sheet name="M 2021" sheetId="4" r:id="rId7"/>
     <sheet name="M 2020" sheetId="5" r:id="rId8"/>
-    <sheet name="H 2021" sheetId="6" r:id="rId9"/>
-    <sheet name="H 2020" sheetId="7" r:id="rId10"/>
-    <sheet name="H 2019" sheetId="8" r:id="rId11"/>
-    <sheet name="A 2021" sheetId="9" r:id="rId12"/>
-    <sheet name="A 2020" sheetId="10" r:id="rId13"/>
-    <sheet name="A 2019" sheetId="11" r:id="rId14"/>
-    <sheet name="A 2018" sheetId="12" r:id="rId15"/>
+    <sheet name="M 2019" sheetId="6" r:id="rId9"/>
+    <sheet name="H 2021" sheetId="7" r:id="rId10"/>
+    <sheet name="H 2020" sheetId="8" r:id="rId11"/>
+    <sheet name="H 2019" sheetId="9" r:id="rId12"/>
+    <sheet name="A 2021" sheetId="10" r:id="rId13"/>
+    <sheet name="A 2020" sheetId="11" r:id="rId14"/>
+    <sheet name="A 2019" sheetId="12" r:id="rId15"/>
+    <sheet name="A 2018" sheetId="13" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -102,6 +102,21 @@
   </si>
   <si>
     <t>header</t>
+  </si>
+  <si>
+    <t>niet knippen?</t>
+  </si>
+  <si>
+    <t>geen vormgeving doen</t>
+  </si>
+  <si>
+    <t>tijd in minuten, geen toevoeging</t>
+  </si>
+  <si>
+    <t>laat niet relevante dingen open</t>
+  </si>
+  <si>
+    <t>structuur etc. moet nog weer beveiligd!</t>
   </si>
   <si>
     <t>statusCode</t>
@@ -179,70 +194,7 @@
     <t>groep</t>
   </si>
   <si>
-    <t>Voorkomen dat oude versies geupload kunnen worden: combineren met status?</t>
-  </si>
-  <si>
-    <t>mededeling dat een file verouderd is</t>
-  </si>
-  <si>
-    <t>apart tabblad voor toetsweek dat in tweede instantie wordt gegenereerd: DAN de CODE veranderen zodat hij alleen roostermaker inleest!</t>
-  </si>
-  <si>
-    <t>statusCode dus; zorg dat duidelijk is of hij ingelezen is; of er schrijfrecht is; of hij nog actueel is; 111?</t>
-  </si>
-  <si>
-    <t>status van het bestand melden bovenaan of op voorblad: combineer met check op rode of oranje velden: bijbehorende tekst uit instellingen halen zodat je in 1x kunt wijzigen.</t>
-  </si>
-  <si>
-    <t>set_Active sheet bij wegschrijven: je start altijd bij openen bij settingstabblad</t>
-  </si>
-  <si>
-    <t>Als er iets rood is: kengetal in settings veranderen, zodat de inlees wordt geblokeerd. Kan met extra veld en check die al in voorwaardelijke opmaak zit ingebouwd</t>
-  </si>
-  <si>
-    <t>voorblad met instructie: ga niet dingen formatten: dat doen wij</t>
-  </si>
-  <si>
-    <t>bij inlezen ook check op correctheid records</t>
-  </si>
-  <si>
-    <t>Laat PHP namen tabbladen geven met cohortjaren erbij</t>
-  </si>
-  <si>
-    <t>Als je programma's van de huidige examenklassen opneemt moeten die onschrijfbaar worden en krijg je drie extra tabbladen.</t>
-  </si>
-  <si>
-    <t>Schrijf weg in de database en laat dan geheel opnieuw genereren om goed te kunnen vergelijken. Stuur checks naar sectie van uit database gegenereerde versie.</t>
-  </si>
-  <si>
-    <t>Percentages SE en VD alleen bij volledig PTA van examenklassen. Anders kun je het niet uitrekenen.</t>
-  </si>
-  <si>
-    <t>Zijn er tt of mt die niet herkansbaar zijn maar wel SE. Anders kun je automatiseren</t>
-  </si>
-  <si>
-    <t>Kun je tabblad aanmaken via PHP op basis van sjabloon =&gt; kopieren?</t>
-  </si>
-  <si>
-    <t>Verbergen 3e laag als het niet vwo is</t>
-  </si>
-  <si>
-    <t>sorteer op periode, toetssoort? Of domweg wat de invoer was? Nee, dat gaat mis bij selectieve update.</t>
-  </si>
-  <si>
-    <t>tabblad roostermaker toetsweek alleen genereren voor komende / huidige jaar na REWRITE vanuit PHP</t>
-  </si>
-  <si>
-    <t>Hiden van alles (dus ook paars) via PHP. Lock Excel-sjabloon. Werkt dat dan?</t>
-  </si>
-  <si>
-    <t>Als je ja nee wegschrijft: houd je dan wel de dropdown? Of moet je verwijzen naar instellingen? En is dat relevant? JA, want bij controle soms wijziging.</t>
-  </si>
-  <si>
-    <t>Maak inleesdirectory die per beschikbaar vak inleest foreach. Verplaats ingelezen naar aparte map en weer aparte map voor nieuw gegenereerde.</t>
-  </si>
-  <si>
-    <t>Wat gebeurt er als je knipt en plakt van ander tabblad? Hoe zit het met opmaakvoorwaarden, beschikbaarheid dropdown e.d.?</t>
+    <t>mavo?</t>
   </si>
   <si>
     <t>schrijfrecht</t>
@@ -251,16 +203,67 @@
     <t>NE</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fictie </t>
+  </si>
+  <si>
+    <t>woordenboek niet toegestaan</t>
+  </si>
+  <si>
+    <t>NE/K/1, NE/K/3, NE/K/8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Leesvaardigheid</t>
+  </si>
+  <si>
+    <t>NE/K/6</t>
+  </si>
+  <si>
+    <t>Kijk- / Luistervaardigheid</t>
+  </si>
+  <si>
+    <t>NE/K/4</t>
+  </si>
+  <si>
+    <t>Schrijfvaardigheid</t>
+  </si>
+  <si>
+    <t>NE/K/1, NE/K/3, NE/K/7, NE/V/2, NE/V/3</t>
+  </si>
+  <si>
+    <t>Spreekvaardigheid</t>
+  </si>
+  <si>
+    <t>NE/K/2/, NE/K/5, NE/K/8, NE/V/1</t>
+  </si>
+  <si>
+    <t>Fictiedossier</t>
+  </si>
+  <si>
+    <t>NE/K/7, NE/K/8, NE/V/1, NE/V/2, NE/V/3</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
     <t>SE schrijven recensie, betoog met uiteenzettende elementen, (boek 1) inclusief verhaalanalyse</t>
   </si>
   <si>
+    <t>het gelezen werk en een ingevuld bouwplan</t>
+  </si>
+  <si>
+    <t>C,  E</t>
+  </si>
+  <si>
     <t>literatuurgeschiedenis</t>
   </si>
   <si>
     <t>Presenteren en literatuur: duopresentatie over een literair werk (boek 2).</t>
+  </si>
+  <si>
+    <t>B, E</t>
   </si>
   <si>
     <t>lezen en argumenteren</t>
@@ -274,17 +277,38 @@
 verplichte lijst voor havo 4 (boek 3 en 4).  </t>
   </si>
   <si>
+    <t>geen woordenboek, geen gelezen werken</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
     <t>Formuleren en spellen</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t xml:space="preserve">Tekstanalyse en argumenteren
  </t>
   </si>
   <si>
+    <t>A, D</t>
+  </si>
+  <si>
     <t>Beschouwing op basis van een dossier. Het volledige dossier moet op een nader te bepalen tijdstip persoonlijk overhandigd worden aan de docent. Levert een leerling van tevoren geen dossier in, of op de dag van het SE, dan is het maximaal te behalen cijfer een 4,0.</t>
   </si>
   <si>
+    <t>tekstverwerker met spellingcontrole</t>
+  </si>
+  <si>
+    <t>B, F</t>
+  </si>
+  <si>
     <t>Mondeling literatuur, over vier gelezen moderne werken vanaf 1940 op basis van een dossier. Het volledige dossier moet op een nader te bepalen tijdstip persoonlijk overhandigd worden aan de docent. Levert een leerling van tevoren geen leesdossier in, of op de dag van het mondeling, dan is het maximaal te behalen cijfer een 4,0.</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
   <si>
     <t>A</t>
@@ -305,6 +329,9 @@
     <t>Opdracht bij 3 moderne werken, periode 1940 tot heden</t>
   </si>
   <si>
+    <t>woordenboek en gelezen werken niet toegestaan</t>
+  </si>
+  <si>
     <t>tekstverklaring en argumenteren</t>
   </si>
   <si>
@@ -315,6 +342,9 @@
   </si>
   <si>
     <t>Betoog met uiteenzettende elementen op basis van een dossier Het volledige dossier moet op een nader te bepalen tijdstip persoonlijk overhandigd worden aan de docent. Levert een leerling van tevoren geen dossier in, of op de dag van het SE, dan is het maximaal te behalen cijfer een 4,0.</t>
+  </si>
+  <si>
+    <t>C, D</t>
   </si>
   <si>
     <t>Literatuur: mondeling literatuur o.b.v. leesdossier. Vier literaire werken na 1940 en een uit de 19e eeuw.  Het volledige dossier moet op een nader te bepalen tijdstip persoonlijk overhandigd worden aan de docent. Levert een leerling van tevoren geen leesdossier in, of op de dag van het mondeling, dan is het maximaal te behalen cijfer een 4,0.</t>
@@ -334,7 +364,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -415,6 +445,15 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b val="0"/>
@@ -544,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -650,6 +689,9 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="9" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -657,7 +699,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -1225,11 +1267,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="1" max="1" width="18.28515625" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" customWidth="true" style="7"/>
     <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
     <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
     <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
@@ -1253,26 +1295,26 @@
     </row>
     <row r="2" spans="1:17" customHeight="1" ht="48">
       <c r="A2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="35" t="str">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="36" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+        <v>verouderd PTA</v>
+      </c>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
       <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -1280,288 +1322,228 @@
     </row>
     <row r="4" spans="1:17" customHeight="1" ht="30">
       <c r="A4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>NE leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v> leerlaag 4 (schooljaar  - 1)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="D5" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:17" customHeight="1" ht="72">
       <c r="A6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="2">
-        <v>17</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="I6" s="27">
-        <v>1</v>
-      </c>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27">
-        <v>50</v>
-      </c>
+      <c r="L6" s="27"/>
       <c r="M6" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N6" s="31"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>18</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>1</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7" s="27">
-        <v>2</v>
-      </c>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27">
-        <v>50</v>
-      </c>
+      <c r="L7" s="27"/>
       <c r="M7" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="2">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2">
-        <v>19</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>2</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8" s="27">
-        <v>2</v>
-      </c>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27">
-        <v>100</v>
-      </c>
+      <c r="L8" s="27"/>
       <c r="M8" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2023</v>
-      </c>
-      <c r="D9" s="2">
-        <v>20</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>3</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="27">
-        <v>2</v>
-      </c>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
       <c r="J9" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27">
-        <v>100</v>
-      </c>
+      <c r="L9" s="27"/>
       <c r="M9" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
-      </c>
-      <c r="D10" s="2">
-        <v>21</v>
-      </c>
+        <v>44340.451041667</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="G10" s="27">
-        <v>4</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="27">
-        <v>2</v>
-      </c>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="29" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="27">
-        <v>50</v>
-      </c>
+      <c r="L10" s="27"/>
       <c r="M10" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2">
-        <v>22</v>
-      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="G11" s="27">
-        <v>4</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="I11" s="27">
-        <v>2</v>
-      </c>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
       <c r="J11" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K11" s="30"/>
-      <c r="L11" s="27">
-        <v>100</v>
-      </c>
+      <c r="L11" s="27"/>
       <c r="M11" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="31">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -1570,91 +1552,98 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>0</v>
+        <v>-2020</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2">
-        <v>7</v>
-      </c>
-      <c r="G13" s="33" t="str">
+        <v>33</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="G13" s="34" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag A4 (schooljaar 2020 - 2021)</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
+      </c>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B14" s="7">
-        <f>4+B11-B7</f>
+        <f>B15+B11-B7</f>
+        <v>2024</v>
+      </c>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="7">
+        <f>IF(B6="M",3,4)</f>
         <v>4</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
     </row>
     <row r="16" spans="1:17" customHeight="1" ht="30.75">
       <c r="C16" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>NE leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v> leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
       <c r="D17" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O17" s="19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P17" s="20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
@@ -1791,77 +1780,75 @@
     </row>
     <row r="25" spans="1:17">
       <c r="C25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="2">
-        <v>8</v>
-      </c>
-      <c r="G25" s="33" t="str">
+        <v>33</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="G25" s="34" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag A5 (schooljaar 2021 - 2022)</v>
-      </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
+      </c>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
     </row>
     <row r="28" spans="1:17" customHeight="1" ht="30.75">
       <c r="C28" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>NE leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v> leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
       <c r="D29" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G29" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L29" s="19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M29" s="19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N29" s="19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O29" s="19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P29" s="20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
@@ -1998,33 +1985,31 @@
     </row>
     <row r="37" spans="1:17">
       <c r="C37" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="2">
-        <v>9</v>
-      </c>
-      <c r="G37" s="33" t="str">
+        <v>33</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="G37" s="34" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag A6 (schooljaar 2022 - 2023)</v>
-      </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
+      </c>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -2079,44 +2064,6 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
@@ -2145,11 +2092,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="1" max="1" width="18.28515625" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" customWidth="true" style="7"/>
     <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
     <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
     <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
@@ -2173,26 +2120,26 @@
     </row>
     <row r="2" spans="1:17" customHeight="1" ht="48">
       <c r="A2" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="35" t="str">
+        <v>56</v>
+      </c>
+      <c r="G2" s="36" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
+      </c>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
       <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -2200,85 +2147,93 @@
     </row>
     <row r="4" spans="1:17" customHeight="1" ht="30">
       <c r="A4" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>NE leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>NE leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:17" customHeight="1" ht="72">
       <c r="A6" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="D6" s="2">
+        <v>17</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="27">
+        <v>1</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
+      <c r="L6" s="27">
+        <v>50</v>
+      </c>
       <c r="M6" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="31"/>
       <c r="O6" s="31" t="s">
@@ -2288,25 +2243,35 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>18</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>1</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" s="27">
+        <v>2</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
+        <v>7</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="27">
+        <v>50</v>
+      </c>
       <c r="M7" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
@@ -2316,25 +2281,33 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>19</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>2</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="27">
+        <v>2</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
+      <c r="L8" s="27">
+        <v>100</v>
+      </c>
       <c r="M8" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
@@ -2344,26 +2317,34 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2023</v>
+      </c>
+      <c r="D9" s="2">
+        <v>20</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>3</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" s="27">
+        <v>2</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27"/>
+      <c r="L9" s="27">
+        <v>100</v>
+      </c>
       <c r="M9" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
@@ -2373,26 +2354,34 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44340.451041667</v>
+      </c>
+      <c r="D10" s="2">
+        <v>21</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="27">
+        <v>4</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="27">
+        <v>2</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="27"/>
+      <c r="L10" s="27">
+        <v>50</v>
+      </c>
       <c r="M10" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
@@ -2402,36 +2391,50 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>22</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="G11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
+      <c r="G11" s="27">
+        <v>4</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="27">
+        <v>2</v>
+      </c>
       <c r="J11" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="27"/>
+        <v>19</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="L11" s="27">
+        <v>100</v>
+      </c>
       <c r="M11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N11" s="31">
+        <v>5</v>
+      </c>
       <c r="O11" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -2440,348 +2443,307 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2">
-        <v>10</v>
-      </c>
-      <c r="G13" s="33" t="str">
+        <v>7</v>
+      </c>
+      <c r="G13" s="34" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag A4 (schooljaar 2019 - 2020)</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag A4 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B14" s="7">
-        <f>4+B11-B7</f>
-        <v>5</v>
-      </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
+        <f>B15+B11-B7</f>
+        <v>4</v>
+      </c>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="7">
+        <f>IF(B6="M",3,4)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:17" customHeight="1" ht="30.75">
       <c r="C16" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>NE leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>NE leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
       <c r="D17" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O17" s="19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P17" s="20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>23</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="I18" s="27">
-        <v>2</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27">
-        <v>100</v>
-      </c>
+      <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N18" s="31"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>24</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>2</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19" s="27">
-        <v>2</v>
-      </c>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27">
-        <v>100</v>
-      </c>
+      <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N19" s="31"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2">
-        <v>25</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27">
-        <v>2</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="I20" s="27">
-        <v>2</v>
-      </c>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K20" s="30"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N20" s="31"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2">
-        <v>26</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="27">
-        <v>3</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I21" s="27">
-        <v>2</v>
-      </c>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K21" s="30"/>
-      <c r="L21" s="27">
-        <v>50</v>
-      </c>
+      <c r="L21" s="27"/>
       <c r="M21" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N21" s="31"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2">
-        <v>27</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="G22" s="27">
-        <v>4</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="I22" s="27">
-        <v>2</v>
-      </c>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="27"/>
       <c r="J22" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K22" s="30"/>
-      <c r="L22" s="27">
-        <v>100</v>
-      </c>
+      <c r="L22" s="27"/>
       <c r="M22" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="31">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N22" s="31"/>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2">
-        <v>28</v>
-      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="G23" s="27">
-        <v>4</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="I23" s="27">
-        <v>2</v>
-      </c>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
       <c r="J23" s="29" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K23" s="30"/>
-      <c r="L23" s="27">
-        <v>50</v>
-      </c>
+      <c r="L23" s="27"/>
       <c r="M23" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N23" s="31">
-        <v>10</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N23" s="31"/>
       <c r="O23" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P23" s="32"/>
     </row>
     <row r="25" spans="1:17">
       <c r="C25" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2">
-        <v>11</v>
-      </c>
-      <c r="G25" s="33" t="str">
+        <v>8</v>
+      </c>
+      <c r="G25" s="34" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag A5 (schooljaar 2020 - 2021)</v>
-      </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag A5 (schooljaar 2021 - 2022)</v>
+      </c>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
     </row>
     <row r="28" spans="1:17" customHeight="1" ht="30.75">
       <c r="C28" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>NE leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>NE leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
       <c r="D29" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G29" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L29" s="19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M29" s="19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N29" s="19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O29" s="19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P29" s="20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
@@ -2918,33 +2880,33 @@
     </row>
     <row r="37" spans="1:17">
       <c r="C37" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2">
-        <v>12</v>
-      </c>
-      <c r="G37" s="33" t="str">
+        <v>9</v>
+      </c>
+      <c r="G37" s="34" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag A6 (schooljaar 2021 - 2022)</v>
-      </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag A6 (schooljaar 2022 - 2023)</v>
+      </c>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -3058,18 +3020,18 @@
   </sheetPr>
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="1" max="1" width="18.28515625" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" customWidth="true" style="7"/>
     <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
     <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
     <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
@@ -3093,26 +3055,967 @@
     </row>
     <row r="2" spans="1:17" customHeight="1" ht="48">
       <c r="A2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="36" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+      </c>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>NE leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.451041667</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="2">
+        <v>10</v>
+      </c>
+      <c r="G13" s="34" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="7">
+        <f>B15+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="7">
+        <f>IF(B6="M",3,4)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>NE leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2">
+        <v>23</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="27">
+        <v>2</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27">
+        <v>100</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="32"/>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2">
+        <v>24</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="27">
+        <v>2</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="L19" s="27">
+        <v>100</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="32"/>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2">
         <v>25</v>
       </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27">
+        <v>2</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="27">
+        <v>2</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="32"/>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2">
+        <v>26</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27">
+        <v>3</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="27">
+        <v>2</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21" s="27">
+        <v>50</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="32"/>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2">
+        <v>27</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27">
+        <v>4</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" s="27">
+        <v>2</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="L22" s="27">
+        <v>100</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="31">
+        <v>5</v>
+      </c>
+      <c r="O22" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2">
+        <v>28</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27">
+        <v>4</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" s="27">
+        <v>2</v>
+      </c>
+      <c r="J23" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" s="27">
+        <v>50</v>
+      </c>
+      <c r="M23" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="31">
+        <v>10</v>
+      </c>
+      <c r="O23" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23" s="32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="2">
+        <v>11</v>
+      </c>
+      <c r="G25" s="34" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>NE leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="2">
+        <v>12</v>
+      </c>
+      <c r="G37" s="34" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="35" t="str">
+        <v>56</v>
+      </c>
+      <c r="G2" s="36" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
         <v>Dit is het programma van de huidige A6 (cohort 2018 - 2021)</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
       <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -3120,13 +4023,13 @@
     </row>
     <row r="4" spans="1:17" customHeight="1" ht="30">
       <c r="A4" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
@@ -3136,54 +4039,54 @@
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:17" customHeight="1" ht="72">
       <c r="A6" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3208,7 +4111,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B7" s="2">
         <v>2018</v>
@@ -3236,7 +4139,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2">
         <v>6</v>
@@ -3264,7 +4167,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -3293,11 +4196,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.451041667</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3322,7 +4225,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -3351,7 +4254,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -3360,48 +4263,57 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
         <v>-2</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2">
         <v>13</v>
       </c>
-      <c r="G13" s="33" t="str">
+      <c r="G13" s="34" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag A4 (schooljaar 2018 - 2019)</v>
       </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B14" s="7">
-        <f>4+B11-B7</f>
+        <f>B15+B11-B7</f>
         <v>6</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="7">
+        <f>IF(B6="M",3,4)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:17" customHeight="1" ht="30.75">
       <c r="C16" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
@@ -3411,40 +4323,40 @@
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
       <c r="D17" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O17" s="19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P17" s="20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
@@ -3581,34 +4493,34 @@
     </row>
     <row r="25" spans="1:17">
       <c r="C25" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2">
         <v>14</v>
       </c>
-      <c r="G25" s="33" t="str">
+      <c r="G25" s="34" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag A5 (schooljaar 2019 - 2020)</v>
       </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
     </row>
     <row r="28" spans="1:17" customHeight="1" ht="30.75">
       <c r="C28" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
@@ -3618,40 +4530,40 @@
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
       <c r="D29" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G29" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L29" s="19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M29" s="19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N29" s="19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O29" s="19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P29" s="20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
@@ -3663,13 +4575,15 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K30" s="30"/>
+      <c r="K30" s="30" t="s">
+        <v>60</v>
+      </c>
       <c r="L30" s="27">
         <v>100</v>
       </c>
@@ -3680,9 +4594,11 @@
         <v>10</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P30" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P30" s="32" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2">
@@ -3693,13 +4609,15 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="K31" s="30"/>
+      <c r="K31" s="30" t="s">
+        <v>89</v>
+      </c>
       <c r="L31" s="27">
         <v>100</v>
       </c>
@@ -3712,7 +4630,9 @@
       <c r="O31" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P31" s="32"/>
+      <c r="P31" s="32" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2">
@@ -3723,7 +4643,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I32" s="27"/>
       <c r="J32" s="29" t="s">
@@ -3740,9 +4660,11 @@
         <v>20</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P32" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P32" s="32" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
       <c r="D33" s="2">
@@ -3753,13 +4675,15 @@
         <v>3</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="I33" s="27"/>
       <c r="J33" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="K33" s="30"/>
+      <c r="K33" s="30" t="s">
+        <v>60</v>
+      </c>
       <c r="L33" s="27">
         <v>50</v>
       </c>
@@ -3772,7 +4696,9 @@
       <c r="O33" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P33" s="32"/>
+      <c r="P33" s="32" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="34" spans="1:17" customHeight="1" ht="72">
       <c r="D34" s="2">
@@ -3783,13 +4709,15 @@
         <v>3</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="I34" s="27"/>
       <c r="J34" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="K34" s="30"/>
+      <c r="K34" s="30" t="s">
+        <v>60</v>
+      </c>
       <c r="L34" s="27">
         <v>50</v>
       </c>
@@ -3802,7 +4730,9 @@
       <c r="O34" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P34" s="32"/>
+      <c r="P34" s="32" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="35" spans="1:17" customHeight="1" ht="72">
       <c r="D35" s="2"/>
@@ -3828,33 +4758,33 @@
     </row>
     <row r="37" spans="1:17">
       <c r="C37" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2">
         <v>15</v>
       </c>
-      <c r="G37" s="33" t="str">
+      <c r="G37" s="34" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag A6 (schooljaar 2020 - 2021)</v>
       </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -3966,6 +4896,60 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="235" zoomScaleNormal="235" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
@@ -3975,11 +4959,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="1" max="1" width="18.28515625" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" customWidth="true" style="7"/>
     <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
     <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
     <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
@@ -4003,26 +4987,26 @@
     </row>
     <row r="2" spans="1:17" customHeight="1" ht="48">
       <c r="A2" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="35" t="str">
+      <c r="G2" s="36" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
         <v>verouderd PTA</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
       <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -4030,11 +5014,11 @@
     </row>
     <row r="4" spans="1:17" customHeight="1" ht="30">
       <c r="A4" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
@@ -4044,49 +5028,49 @@
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2"/>
       <c r="D5" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:17" customHeight="1" ht="72">
       <c r="A6" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
@@ -4112,7 +5096,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B7" s="2"/>
       <c r="D7" s="2"/>
@@ -4138,7 +5122,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2"/>
       <c r="D8" s="2"/>
@@ -4164,7 +5148,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -4193,11 +5177,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.451041667</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4222,7 +5206,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -4251,7 +5235,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -4260,46 +5244,55 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
         <v>-2020</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="G13" s="33" t="str">
+      <c r="G13" s="34" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
       </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B14" s="7">
-        <f>4+B11-B7</f>
+        <f>B15+B11-B7</f>
         <v>2024</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="7">
+        <f>IF(B6="M",3,4)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:17" customHeight="1" ht="30.75">
       <c r="C16" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
@@ -4309,40 +5302,40 @@
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
       <c r="D17" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O17" s="19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P17" s="20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
@@ -4479,32 +5472,32 @@
     </row>
     <row r="25" spans="1:17">
       <c r="C25" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="G25" s="33" t="str">
+      <c r="G25" s="34" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
     </row>
     <row r="28" spans="1:17" customHeight="1" ht="30.75">
       <c r="C28" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
@@ -4514,40 +5507,40 @@
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
       <c r="D29" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G29" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L29" s="19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M29" s="19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N29" s="19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O29" s="19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P29" s="20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
@@ -4684,31 +5677,31 @@
     </row>
     <row r="37" spans="1:17">
       <c r="C37" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2"/>
-      <c r="G37" s="33" t="str">
+      <c r="G37" s="34" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -4777,145 +5770,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A22"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="160" zoomScaleNormal="160" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A23" sqref="A23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
@@ -4930,11 +5784,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="1" max="1" width="18.28515625" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" customWidth="true" style="7"/>
     <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
     <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
     <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
@@ -4958,26 +5812,26 @@
     </row>
     <row r="2" spans="1:17" customHeight="1" ht="48">
       <c r="A2" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="35" t="str">
+      <c r="G2" s="36" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
         <v>verouderd PTA</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
       <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -4985,11 +5839,11 @@
     </row>
     <row r="4" spans="1:17" customHeight="1" ht="30">
       <c r="A4" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
@@ -4999,49 +5853,49 @@
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2"/>
       <c r="D5" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:17" customHeight="1" ht="72">
       <c r="A6" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
@@ -5067,7 +5921,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B7" s="2"/>
       <c r="D7" s="2"/>
@@ -5093,7 +5947,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2"/>
       <c r="D8" s="2"/>
@@ -5119,7 +5973,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -5148,11 +6002,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.451041667</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5177,7 +6031,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -5206,7 +6060,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5215,46 +6069,55 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
         <v>-2020</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="G13" s="33" t="str">
+      <c r="G13" s="34" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
       </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B14" s="7">
-        <f>4+B11-B7</f>
+        <f>B15+B11-B7</f>
         <v>2024</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="7">
+        <f>IF(B6="M",3,4)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:17" customHeight="1" ht="30.75">
       <c r="C16" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
@@ -5264,40 +6127,40 @@
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
       <c r="D17" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O17" s="19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P17" s="20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
@@ -5434,32 +6297,32 @@
     </row>
     <row r="25" spans="1:17">
       <c r="C25" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="G25" s="33" t="str">
+      <c r="G25" s="34" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
     </row>
     <row r="28" spans="1:17" customHeight="1" ht="30.75">
       <c r="C28" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
@@ -5469,40 +6332,40 @@
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
       <c r="D29" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G29" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L29" s="19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M29" s="19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N29" s="19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O29" s="19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P29" s="20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
@@ -5639,31 +6502,31 @@
     </row>
     <row r="37" spans="1:17">
       <c r="C37" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2"/>
-      <c r="G37" s="33" t="str">
+      <c r="G37" s="34" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -5746,11 +6609,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="1" max="1" width="18.28515625" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" customWidth="true" style="7"/>
     <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
     <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
     <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
@@ -5774,26 +6637,26 @@
     </row>
     <row r="2" spans="1:17" customHeight="1" ht="48">
       <c r="A2" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="35" t="str">
+      <c r="G2" s="36" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
         <v>verouderd PTA</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
       <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -5801,11 +6664,11 @@
     </row>
     <row r="4" spans="1:17" customHeight="1" ht="30">
       <c r="A4" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
@@ -5815,49 +6678,49 @@
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2"/>
       <c r="D5" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:17" customHeight="1" ht="72">
       <c r="A6" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
@@ -5883,7 +6746,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B7" s="2"/>
       <c r="D7" s="2"/>
@@ -5909,7 +6772,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2"/>
       <c r="D8" s="2"/>
@@ -5935,7 +6798,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -5964,11 +6827,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.451041667</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5993,7 +6856,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -6022,7 +6885,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -6031,46 +6894,55 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
         <v>-2020</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="G13" s="33" t="str">
+      <c r="G13" s="34" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
       </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B14" s="7">
-        <f>4+B11-B7</f>
+        <f>B15+B11-B7</f>
         <v>2024</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="7">
+        <f>IF(B6="M",3,4)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:17" customHeight="1" ht="30.75">
       <c r="C16" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
@@ -6080,40 +6952,40 @@
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
       <c r="D17" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O17" s="19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P17" s="20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
@@ -6250,32 +7122,32 @@
     </row>
     <row r="25" spans="1:17">
       <c r="C25" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="G25" s="33" t="str">
+      <c r="G25" s="34" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
     </row>
     <row r="28" spans="1:17" customHeight="1" ht="30.75">
       <c r="C28" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
@@ -6285,40 +7157,40 @@
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
       <c r="D29" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G29" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L29" s="19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M29" s="19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N29" s="19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O29" s="19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P29" s="20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
@@ -6455,31 +7327,31 @@
     </row>
     <row r="37" spans="1:17">
       <c r="C37" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2"/>
-      <c r="G37" s="33" t="str">
+      <c r="G37" s="34" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -6562,11 +7434,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="1" max="1" width="18.28515625" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" customWidth="true" style="7"/>
     <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
     <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
     <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
@@ -6590,26 +7462,958 @@
     </row>
     <row r="2" spans="1:17" customHeight="1" ht="48">
       <c r="A2" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="36" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>Dit is het programma van de huidige M4 (cohort 2019 - 2020)</v>
+      </c>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>NE leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2020</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.451041667</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="34" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="7">
+        <f>B15+B11-B7</f>
+        <v>4</v>
+      </c>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="7">
+        <f>IF(B6="M",3,4)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>NE leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="27"/>
+      <c r="J18" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" s="27">
+        <v>50</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="31">
+        <v>1</v>
+      </c>
+      <c r="O18" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27">
+        <v>1</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="27"/>
+      <c r="J19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27">
+        <v>100</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="31">
+        <v>2</v>
+      </c>
+      <c r="O19" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27">
+        <v>2</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="27"/>
+      <c r="J20" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27">
+        <v>100</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>2</v>
+      </c>
+      <c r="O20" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27">
+        <v>2</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="27"/>
+      <c r="J21" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27">
+        <v>50</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="31">
+        <v>2</v>
+      </c>
+      <c r="O21" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27">
+        <v>3</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" s="27"/>
+      <c r="J22" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="27">
+        <v>15</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="31">
+        <v>1</v>
+      </c>
+      <c r="O22" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2">
+        <v>6</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27">
+        <v>3</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31">
+        <v>0</v>
+      </c>
+      <c r="P23" s="32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2</v>
+      </c>
+      <c r="G25" s="34" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>NE leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="G37" s="34" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="11">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="35" t="str">
+      <c r="G2" s="36" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
         <v>verouderd PTA</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
       <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -6617,11 +8421,11 @@
     </row>
     <row r="4" spans="1:17" customHeight="1" ht="30">
       <c r="A4" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
@@ -6631,49 +8435,49 @@
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2"/>
       <c r="D5" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:17" customHeight="1" ht="72">
       <c r="A6" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
@@ -6699,7 +8503,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B7" s="2"/>
       <c r="D7" s="2"/>
@@ -6725,7 +8529,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2"/>
       <c r="D8" s="2"/>
@@ -6751,7 +8555,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -6780,11 +8584,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.451041667</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6809,7 +8613,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -6838,7 +8642,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -6847,46 +8651,55 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
         <v>-2020</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="G13" s="33" t="str">
+      <c r="G13" s="34" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
       </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B14" s="7">
-        <f>4+B11-B7</f>
+        <f>B15+B11-B7</f>
         <v>2024</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="7">
+        <f>IF(B6="M",3,4)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:17" customHeight="1" ht="30.75">
       <c r="C16" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
@@ -6896,40 +8709,40 @@
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
       <c r="D17" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O17" s="19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P17" s="20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
@@ -7066,32 +8879,32 @@
     </row>
     <row r="25" spans="1:17">
       <c r="C25" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="G25" s="33" t="str">
+      <c r="G25" s="34" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
     </row>
     <row r="28" spans="1:17" customHeight="1" ht="30.75">
       <c r="C28" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
@@ -7101,40 +8914,40 @@
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
       <c r="D29" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G29" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L29" s="19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M29" s="19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N29" s="19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O29" s="19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P29" s="20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
@@ -7271,31 +9084,31 @@
     </row>
     <row r="37" spans="1:17">
       <c r="C37" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2"/>
-      <c r="G37" s="33" t="str">
+      <c r="G37" s="34" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -7364,7 +9177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7378,11 +9191,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="1" max="1" width="18.28515625" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" customWidth="true" style="7"/>
     <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
     <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
     <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
@@ -7406,26 +9219,26 @@
     </row>
     <row r="2" spans="1:17" customHeight="1" ht="48">
       <c r="A2" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="35" t="str">
+        <v>56</v>
+      </c>
+      <c r="G2" s="36" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
         <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
       <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -7433,13 +9246,13 @@
     </row>
     <row r="4" spans="1:17" customHeight="1" ht="30">
       <c r="A4" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
@@ -7449,54 +9262,54 @@
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:17" customHeight="1" ht="72">
       <c r="A6" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2">
         <v>7</v>
@@ -7506,7 +9319,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I6" s="27">
         <v>2</v>
@@ -7514,7 +9327,9 @@
       <c r="J6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="30"/>
+      <c r="K6" s="30" t="s">
+        <v>74</v>
+      </c>
       <c r="L6" s="27">
         <v>100</v>
       </c>
@@ -7527,11 +9342,13 @@
       <c r="O6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="32"/>
+      <c r="P6" s="32" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -7555,17 +9372,17 @@
       <c r="K7" s="30"/>
       <c r="L7" s="27"/>
       <c r="M7" s="27" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
@@ -7599,11 +9416,13 @@
       <c r="O8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="32"/>
+      <c r="P8" s="32" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -7617,7 +9436,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I9" s="27">
         <v>2</v>
@@ -7630,21 +9449,21 @@
         <v>50</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.451041667</v>
       </c>
       <c r="D10" s="2">
         <v>11</v>
@@ -7654,7 +9473,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I10" s="27">
         <v>2</v>
@@ -7667,17 +9486,17 @@
         <v>50</v>
       </c>
       <c r="M10" s="27" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -7691,7 +9510,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I11" s="27">
         <v>2</v>
@@ -7699,7 +9518,9 @@
       <c r="J11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="30"/>
+      <c r="K11" s="30" t="s">
+        <v>82</v>
+      </c>
       <c r="L11" s="27">
         <v>100</v>
       </c>
@@ -7712,11 +9533,13 @@
       <c r="O11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="32"/>
+      <c r="P11" s="32" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -7725,48 +9548,57 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
         <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2">
         <v>3</v>
       </c>
-      <c r="G13" s="33" t="str">
+      <c r="G13" s="34" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B14" s="7">
-        <f>4+B11-B7</f>
+        <f>B15+B11-B7</f>
         <v>4</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="7">
+        <f>IF(B6="M",3,4)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:17" customHeight="1" ht="30.75">
       <c r="C16" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
@@ -7776,40 +9608,40 @@
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
       <c r="D17" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O17" s="19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P17" s="20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
@@ -7946,34 +9778,34 @@
     </row>
     <row r="25" spans="1:17">
       <c r="C25" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2">
         <v>4</v>
       </c>
-      <c r="G25" s="33" t="str">
+      <c r="G25" s="34" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
     </row>
     <row r="28" spans="1:17" customHeight="1" ht="30.75">
       <c r="C28" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
@@ -7983,40 +9815,40 @@
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
       <c r="D29" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G29" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L29" s="19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M29" s="19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N29" s="19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O29" s="19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P29" s="20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
@@ -8153,931 +9985,31 @@
     </row>
     <row r="37" spans="1:17">
       <c r="C37" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2"/>
-      <c r="G37" s="33" t="str">
+      <c r="G37" s="34" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="G26:M26"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J6:J11">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>ISBLANK($J6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:J23">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>ISBLANK($J18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J35">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>ISBLANK($J30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M11">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>ISBLANK($M6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18:M23">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>ISBLANK($M18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M30:M35">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>ISBLANK($M30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O11">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>ISBLANK($O6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O18:O23">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>ISBLANK($O18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O30:O35">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>ISBLANK($O30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:Q38"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
-    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
-    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
-    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
-    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
-    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
-    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
-    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
-    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
-    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
-    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
-    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:17" customHeight="1" ht="48">
-      <c r="A2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="35" t="str">
-        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" customHeight="1" ht="30">
-      <c r="A4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="G4" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>NE leerlaag H4 (schooljaar 2019 - 2020)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" customHeight="1" ht="34.5">
-      <c r="A5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" customHeight="1" ht="72">
-      <c r="A6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="32"/>
-    </row>
-    <row r="7" spans="1:17" customHeight="1" ht="72">
-      <c r="A7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="32"/>
-    </row>
-    <row r="8" spans="1:17" customHeight="1" ht="72">
-      <c r="A8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="2">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="32"/>
-    </row>
-    <row r="9" spans="1:17" customHeight="1" ht="72">
-      <c r="A9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="4">
-        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2021</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="32"/>
-    </row>
-    <row r="10" spans="1:17" customHeight="1" ht="72">
-      <c r="A10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="6">
-        <f>NOW()</f>
-        <v>44336.445706019</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="32"/>
-    </row>
-    <row r="11" spans="1:17" customHeight="1" ht="72">
-      <c r="A11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="4">
-        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
-        <v>2020</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="G11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="32"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <f>CONCATENATE(B11," - ",B11+1)</f>
-        <v>2020 - 2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="4">
-        <f>B7-B11</f>
-        <v>-1</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2">
-        <v>5</v>
-      </c>
-      <c r="G13" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag H4 (schooljaar 2019 - 2020)</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-    </row>
-    <row r="14" spans="1:17" customHeight="1" ht="72">
-      <c r="A14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="7">
-        <f>4+B11-B7</f>
-        <v>5</v>
-      </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-    </row>
-    <row r="16" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="G16" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>NE leerlaag H5 (schooljaar 2020 - 2021)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>13</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="27">
-        <v>100</v>
-      </c>
-      <c r="M18" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="31">
-        <v>15</v>
-      </c>
-      <c r="O18" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P18" s="32"/>
-    </row>
-    <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>14</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>2</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" s="27"/>
-      <c r="J19" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="27">
-        <v>100</v>
-      </c>
-      <c r="M19" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19" s="31">
-        <v>20</v>
-      </c>
-      <c r="O19" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="32"/>
-    </row>
-    <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2">
-        <v>15</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="G20" s="27">
-        <v>3</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="27">
-        <v>100</v>
-      </c>
-      <c r="M20" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="31">
-        <v>20</v>
-      </c>
-      <c r="O20" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="32"/>
-    </row>
-    <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2">
-        <v>16</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="G21" s="27">
-        <v>3</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I21" s="27"/>
-      <c r="J21" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="27">
-        <v>50</v>
-      </c>
-      <c r="M21" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="31">
-        <v>15</v>
-      </c>
-      <c r="O21" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P21" s="32"/>
-    </row>
-    <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="32"/>
-    </row>
-    <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="32"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="C25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="2">
-        <v>6</v>
-      </c>
-      <c r="G25" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag H5 (schooljaar 2020 - 2021)</v>
-      </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-    </row>
-    <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-    </row>
-    <row r="28" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="G28" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>NE leerlaag H6 (schooljaar 2021 - 2021)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N29" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O29" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="G30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="32"/>
-    </row>
-    <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="G31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="32"/>
-    </row>
-    <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="G32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="32"/>
-    </row>
-    <row r="33" spans="1:17" customHeight="1" ht="72">
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="G33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="28"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="32"/>
-    </row>
-    <row r="34" spans="1:17" customHeight="1" ht="72">
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="G34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="32"/>
-    </row>
-    <row r="35" spans="1:17" customHeight="1" ht="72">
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="G35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="28"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="32"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="C37" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="G37" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag H6 (schooljaar 2021 - 2021)</v>
-      </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-    </row>
-    <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -9198,11 +10130,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="1" max="1" width="18.28515625" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" customWidth="true" style="7"/>
     <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
     <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
     <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
@@ -9226,26 +10158,26 @@
     </row>
     <row r="2" spans="1:17" customHeight="1" ht="48">
       <c r="A2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="35" t="str">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="36" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
+      </c>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
       <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -9253,65 +10185,71 @@
     </row>
     <row r="4" spans="1:17" customHeight="1" ht="30">
       <c r="A4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="C4" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v> leerlaag 4 (schooljaar  - 1)</v>
+        <v>NE leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
       <c r="D5" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:17" customHeight="1" ht="72">
       <c r="A6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="27" t="s">
@@ -9335,9 +10273,11 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="27" t="s">
@@ -9361,9 +10301,11 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="27" t="s">
@@ -9387,11 +10329,11 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>1</v>
+        <v>2021</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -9416,11 +10358,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.451041667</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9445,7 +10387,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -9474,7 +10416,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -9483,178 +10425,235 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-2020</v>
+        <v>-1</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="G13" s="33" t="str">
+        <v>33</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="G13" s="34" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag H4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B14" s="7">
-        <f>4+B11-B7</f>
-        <v>2024</v>
-      </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
+        <f>B15+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="7">
+        <f>IF(B6="M",3,4)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:17" customHeight="1" ht="30.75">
       <c r="C16" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v> leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>NE leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
       <c r="D17" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O17" s="19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P17" s="20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>13</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>84</v>
+      </c>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="27"/>
+        <v>7</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" s="27">
+        <v>100</v>
+      </c>
       <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="31">
+        <v>15</v>
+      </c>
       <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>14</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
+      <c r="G19" s="27">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>86</v>
+      </c>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27"/>
+      <c r="L19" s="27">
+        <v>100</v>
+      </c>
       <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="31">
+        <v>20</v>
+      </c>
       <c r="O19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>15</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
+      <c r="G20" s="27">
+        <v>3</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>88</v>
+      </c>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
+        <v>19</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" s="27">
+        <v>100</v>
+      </c>
       <c r="M20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>20</v>
+      </c>
       <c r="O20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>16</v>
+      </c>
       <c r="E21" s="2"/>
-      <c r="G21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="28"/>
+      <c r="G21" s="27">
+        <v>3</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>91</v>
+      </c>
       <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="27"/>
+        <v>10</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21" s="27">
+        <v>50</v>
+      </c>
       <c r="M21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N21" s="31">
+        <v>15</v>
+      </c>
       <c r="O21" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P21" s="32" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
       <c r="D22" s="2"/>
@@ -9702,75 +10701,77 @@
     </row>
     <row r="25" spans="1:17">
       <c r="C25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="G25" s="33" t="str">
+        <v>33</v>
+      </c>
+      <c r="D25" s="2">
+        <v>6</v>
+      </c>
+      <c r="G25" s="34" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
-      </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag H5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
     </row>
     <row r="28" spans="1:17" customHeight="1" ht="30.75">
       <c r="C28" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v> leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>NE leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
       <c r="D29" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G29" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L29" s="19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M29" s="19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N29" s="19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O29" s="19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P29" s="20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
@@ -9907,31 +10908,31 @@
     </row>
     <row r="37" spans="1:17">
       <c r="C37" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2"/>
-      <c r="G37" s="33" t="str">
+      <c r="G37" s="34" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
-      </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag H6 (schooljaar 2021 - 2021)</v>
+      </c>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -9986,6 +10987,44 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>

--- a/public/cohort/fileExcel/xlsxUIT/NE PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/NE PTA en onderwijsprogramma.xlsx
@@ -1489,7 +1489,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.451041667</v>
+        <v>44340.505590278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.451041667</v>
+        <v>44340.505590278</v>
       </c>
       <c r="D10" s="2">
         <v>21</v>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.451041667</v>
+        <v>44340.505590278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4200,7 +4200,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.451041667</v>
+        <v>44340.505590278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5181,7 +5181,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.451041667</v>
+        <v>44340.505590278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5814,12 +5814,12 @@
       <c r="A2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="G2" s="36" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige M2 (cohort 2021 - 2022)</v>
       </c>
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
@@ -5841,21 +5841,25 @@
       <c r="A4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="C4" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v> leerlaag 4 (schooljaar  - 1)</v>
+        <v>NE leerlaag M4 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
       <c r="D5" s="7" t="s">
         <v>35</v>
       </c>
@@ -5897,7 +5901,9 @@
       <c r="A6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="27" t="s">
@@ -5923,7 +5929,9 @@
       <c r="A7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>2021</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="27" t="s">
@@ -5949,7 +5957,9 @@
       <c r="A8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>181</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="27" t="s">
@@ -5977,7 +5987,7 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -6006,7 +6016,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.451041667</v>
+        <v>44340.505590278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6073,15 +6083,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-2020</v>
+        <v>1</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>451</v>
+      </c>
       <c r="G13" s="34" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag M4 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H13" s="34"/>
       <c r="I13" s="34"/>
@@ -6096,7 +6108,7 @@
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
-        <v>2024</v>
+        <v>2</v>
       </c>
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
@@ -6112,7 +6124,7 @@
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:17" customHeight="1" ht="30.75">
@@ -6122,7 +6134,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v> leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>NE leerlaag M5 (schooljaar 2022 - 2023)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -6299,10 +6311,12 @@
       <c r="C25" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>452</v>
+      </c>
       <c r="G25" s="34" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag M5 (schooljaar 2022 - 2023)</v>
       </c>
       <c r="H25" s="34"/>
       <c r="I25" s="34"/>
@@ -6327,7 +6341,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v> leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>NE leerlaag M6 (schooljaar 2023 - 2022)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -6507,7 +6521,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="34" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag M6 (schooljaar 2023 - 2022)</v>
       </c>
       <c r="H37" s="34"/>
       <c r="I37" s="34"/>
@@ -6581,6 +6595,41 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="11">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
@@ -6831,7 +6880,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.451041667</v>
+        <v>44340.505590278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7666,7 +7715,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.451041667</v>
+        <v>44340.505590278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8396,12 +8445,12 @@
       <c r="A2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="G2" s="36" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige H3 (cohort 2021 - 2023)</v>
       </c>
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
@@ -8423,21 +8472,25 @@
       <c r="A4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="C4" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v> leerlaag 4 (schooljaar  - 1)</v>
+        <v>NE leerlaag H4 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
       <c r="D5" s="7" t="s">
         <v>35</v>
       </c>
@@ -8479,7 +8532,9 @@
       <c r="A6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="27" t="s">
@@ -8505,7 +8560,9 @@
       <c r="A7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>2021</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="27" t="s">
@@ -8531,7 +8588,9 @@
       <c r="A8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>182</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="27" t="s">
@@ -8559,7 +8618,7 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>1</v>
+        <v>2023</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -8588,7 +8647,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.451041667</v>
+        <v>44340.505590278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8655,15 +8714,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-2020</v>
+        <v>1</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>453</v>
+      </c>
       <c r="G13" s="34" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag H4 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H13" s="34"/>
       <c r="I13" s="34"/>
@@ -8678,7 +8739,7 @@
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
-        <v>2024</v>
+        <v>3</v>
       </c>
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
@@ -8704,7 +8765,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v> leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>NE leerlaag H5 (schooljaar 2022 - 2023)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -8881,10 +8942,12 @@
       <c r="C25" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>454</v>
+      </c>
       <c r="G25" s="34" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag H5 (schooljaar 2022 - 2023)</v>
       </c>
       <c r="H25" s="34"/>
       <c r="I25" s="34"/>
@@ -8909,7 +8972,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v> leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>NE leerlaag H6 (schooljaar 2023 - 2023)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -9089,7 +9152,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="34" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NE leerlaag H6 (schooljaar 2023 - 2023)</v>
       </c>
       <c r="H37" s="34"/>
       <c r="I37" s="34"/>
@@ -9163,6 +9226,44 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
@@ -9463,7 +9564,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.451041667</v>
+        <v>44340.505590278</v>
       </c>
       <c r="D10" s="2">
         <v>11</v>
@@ -10362,7 +10463,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.451041667</v>
+        <v>44340.505590278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/NE PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/NE PTA en onderwijsprogramma.xlsx
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808715278</v>
+        <v>44341.376087963</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2367,7 +2367,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808715278</v>
+        <v>44341.376087963</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3505,7 +3505,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -3988,7 +3988,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808715278</v>
+        <v>44341.376087963</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4662,7 +4662,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -5063,7 +5063,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808715278</v>
+        <v>44341.376087963</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5795,7 +5795,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -6196,7 +6196,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808715278</v>
+        <v>44341.376087963</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6870,7 +6870,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -7314,7 +7314,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808715278</v>
+        <v>44341.376087963</v>
       </c>
       <c r="D10" s="2">
         <v>11</v>
@@ -8010,7 +8010,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -8414,7 +8414,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808715278</v>
+        <v>44341.376087963</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9134,7 +9134,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -9538,7 +9538,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808715278</v>
+        <v>44341.376087963</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -10214,7 +10214,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -10652,7 +10652,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808715278</v>
+        <v>44341.376087963</v>
       </c>
       <c r="D10" s="2">
         <v>21</v>
@@ -11350,7 +11350,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>

--- a/public/cohort/fileExcel/xlsxUIT/NE PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/NE PTA en onderwijsprogramma.xlsx
@@ -2317,7 +2317,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382071759</v>
+        <v>44342.629305556</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2860,123 +2860,181 @@
       <c r="Q29" s="37"/>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>574</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="37"/>
-      <c r="G30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="24"/>
+      <c r="G30" s="23">
+        <v>1</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>94</v>
+      </c>
       <c r="I30" s="23"/>
       <c r="J30" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="26"/>
-      <c r="L30" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K30" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L30" s="23">
+        <v>100</v>
+      </c>
       <c r="M30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N30" s="27">
+        <v>10</v>
+      </c>
       <c r="O30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P30" s="28" t="s">
+        <v>95</v>
+      </c>
       <c r="Q30" s="37"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>575</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="37"/>
-      <c r="G31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="24"/>
+      <c r="G31" s="23">
+        <v>2</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>116</v>
+      </c>
       <c r="I31" s="23"/>
       <c r="J31" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="26"/>
-      <c r="L31" s="23"/>
+        <v>19</v>
+      </c>
+      <c r="K31" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="L31" s="23">
+        <v>100</v>
+      </c>
       <c r="M31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N31" s="27">
+        <v>20</v>
+      </c>
       <c r="O31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P31" s="28" t="s">
+        <v>95</v>
+      </c>
       <c r="Q31" s="37"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>576</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="37"/>
-      <c r="G32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="24"/>
+      <c r="G32" s="23">
+        <v>2</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>110</v>
+      </c>
       <c r="I32" s="23"/>
       <c r="J32" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K32" s="26"/>
-      <c r="L32" s="23"/>
+      <c r="L32" s="23">
+        <v>100</v>
+      </c>
       <c r="M32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N32" s="27">
+        <v>20</v>
+      </c>
       <c r="O32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P32" s="28" t="s">
+        <v>97</v>
+      </c>
       <c r="Q32" s="37"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
-      <c r="D33" s="2"/>
+      <c r="D33" s="2">
+        <v>577</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="37"/>
-      <c r="G33" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="24"/>
+      <c r="G33" s="23">
+        <v>3</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>117</v>
+      </c>
       <c r="I33" s="23"/>
       <c r="J33" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="26"/>
-      <c r="L33" s="23"/>
+        <v>10</v>
+      </c>
+      <c r="K33" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L33" s="23">
+        <v>50</v>
+      </c>
       <c r="M33" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N33" s="27">
+        <v>15</v>
+      </c>
       <c r="O33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P33" s="28" t="s">
+        <v>100</v>
+      </c>
       <c r="Q33" s="37"/>
     </row>
     <row r="34" spans="1:17" customHeight="1" ht="72">
-      <c r="D34" s="2"/>
+      <c r="D34" s="2">
+        <v>578</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="37"/>
-      <c r="G34" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="24"/>
+      <c r="G34" s="23">
+        <v>3</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>118</v>
+      </c>
       <c r="I34" s="23"/>
       <c r="J34" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="26"/>
-      <c r="L34" s="23"/>
+        <v>10</v>
+      </c>
+      <c r="K34" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L34" s="23">
+        <v>50</v>
+      </c>
       <c r="M34" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N34" s="27">
+        <v>15</v>
+      </c>
       <c r="O34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P34" s="28" t="s">
+        <v>102</v>
+      </c>
       <c r="Q34" s="37"/>
     </row>
     <row r="35" spans="1:17" customHeight="1" ht="72">
@@ -3459,7 +3517,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382071759</v>
+        <v>44342.629305556</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4759,7 +4817,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382071759</v>
+        <v>44342.629305556</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4970,147 +5028,205 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>558</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="I18" s="23"/>
       <c r="J18" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="26"/>
-      <c r="L18" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K18" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L18" s="23">
+        <v>50</v>
+      </c>
       <c r="M18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="27">
+        <v>1</v>
+      </c>
       <c r="O18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>71</v>
+      </c>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>559</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
+      <c r="G19" s="23">
+        <v>1</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>72</v>
+      </c>
       <c r="I19" s="23"/>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="26"/>
-      <c r="L19" s="23"/>
+      <c r="L19" s="23">
+        <v>100</v>
+      </c>
       <c r="M19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="27">
+        <v>2</v>
+      </c>
       <c r="O19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>73</v>
+      </c>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>560</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
+      <c r="G20" s="23">
+        <v>2</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>74</v>
+      </c>
       <c r="I20" s="23"/>
       <c r="J20" s="25" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K20" s="26"/>
-      <c r="L20" s="23"/>
+      <c r="L20" s="23">
+        <v>100</v>
+      </c>
       <c r="M20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <v>2</v>
+      </c>
       <c r="O20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>75</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>561</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="24"/>
+      <c r="G21" s="23">
+        <v>2</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="I21" s="23"/>
       <c r="J21" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K21" s="26"/>
-      <c r="L21" s="23"/>
+      <c r="L21" s="23">
+        <v>50</v>
+      </c>
       <c r="M21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N21" s="27">
+        <v>2</v>
+      </c>
       <c r="O21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>77</v>
+      </c>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>562</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="37"/>
-      <c r="G22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="24"/>
+      <c r="G22" s="23">
+        <v>3</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>78</v>
+      </c>
       <c r="I22" s="23"/>
       <c r="J22" s="25" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K22" s="26"/>
-      <c r="L22" s="23"/>
+      <c r="L22" s="23">
+        <v>15</v>
+      </c>
       <c r="M22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N22" s="27">
+        <v>1</v>
+      </c>
       <c r="O22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>79</v>
+      </c>
       <c r="Q22" s="37"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>563</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="37"/>
-      <c r="G23" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="24"/>
+      <c r="G23" s="23">
+        <v>3</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>80</v>
+      </c>
       <c r="I23" s="23"/>
       <c r="J23" s="25" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K23" s="26"/>
       <c r="L23" s="23"/>
       <c r="M23" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N23" s="27"/>
-      <c r="O23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="28"/>
+      <c r="O23" s="27">
+        <v>0</v>
+      </c>
+      <c r="P23" s="28" t="s">
+        <v>81</v>
+      </c>
       <c r="Q23" s="37"/>
     </row>
     <row r="24" spans="1:17">
@@ -5834,7 +5950,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382071759</v>
+        <v>44342.629305556</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6847,27 +6963,41 @@
       <c r="B6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>568</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="23">
+        <v>2</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="23"/>
+        <v>19</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" s="23">
+        <v>100</v>
+      </c>
       <c r="M6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N6" s="27">
+        <v>5</v>
+      </c>
       <c r="O6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>85</v>
+      </c>
       <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
@@ -6877,21 +7007,27 @@
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>569</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>2</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="23">
+        <v>2</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K7" s="26"/>
       <c r="L7" s="23"/>
       <c r="M7" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="27"/>
       <c r="O7" s="27" t="s">
@@ -6907,27 +7043,39 @@
       <c r="B8" s="2">
         <v>182</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>570</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>3</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="23">
+        <v>2</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K8" s="26"/>
-      <c r="L8" s="23"/>
+      <c r="L8" s="23">
+        <v>15</v>
+      </c>
       <c r="M8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N8" s="27">
+        <v>15</v>
+      </c>
       <c r="O8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>88</v>
+      </c>
       <c r="Q8" s="37"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
@@ -6938,21 +7086,29 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>571</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>3</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="23">
+        <v>2</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="26"/>
-      <c r="L9" s="23"/>
+      <c r="L9" s="23">
+        <v>50</v>
+      </c>
       <c r="M9" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="27"/>
       <c r="O9" s="27" t="s">
@@ -6967,23 +7123,31 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382071759</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44342.629305556</v>
+      </c>
+      <c r="D10" s="2">
+        <v>572</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
+      <c r="G10" s="23">
+        <v>4</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="23">
+        <v>2</v>
+      </c>
       <c r="J10" s="25" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K10" s="26"/>
-      <c r="L10" s="23"/>
+      <c r="L10" s="23">
+        <v>50</v>
+      </c>
       <c r="M10" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N10" s="27"/>
       <c r="O10" s="27" t="s">
@@ -7000,27 +7164,41 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>573</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="37"/>
-      <c r="G11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
+      <c r="G11" s="23">
+        <v>4</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="23">
+        <v>2</v>
+      </c>
       <c r="J11" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="26"/>
-      <c r="L11" s="23"/>
+        <v>19</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="L11" s="23">
+        <v>100</v>
+      </c>
       <c r="M11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N11" s="27">
+        <v>10</v>
+      </c>
       <c r="O11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P11" s="28" t="s">
+        <v>93</v>
+      </c>
       <c r="Q11" s="37"/>
     </row>
     <row r="12" spans="1:17">
@@ -8085,7 +8263,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382071759</v>
+        <v>44342.629305556</v>
       </c>
       <c r="D10" s="2">
         <v>11</v>
@@ -8318,99 +8496,145 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>564</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>94</v>
+      </c>
       <c r="I18" s="23"/>
       <c r="J18" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="26"/>
-      <c r="L18" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K18" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L18" s="23">
+        <v>100</v>
+      </c>
       <c r="M18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="27">
+        <v>15</v>
+      </c>
       <c r="O18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>95</v>
+      </c>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>565</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
+      <c r="G19" s="23">
+        <v>2</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="I19" s="23"/>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="26"/>
-      <c r="L19" s="23"/>
+      <c r="L19" s="23">
+        <v>100</v>
+      </c>
       <c r="M19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="27">
+        <v>20</v>
+      </c>
       <c r="O19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>97</v>
+      </c>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>566</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
+      <c r="G20" s="23">
+        <v>3</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>98</v>
+      </c>
       <c r="I20" s="23"/>
       <c r="J20" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="26"/>
-      <c r="L20" s="23"/>
+        <v>19</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="L20" s="23">
+        <v>100</v>
+      </c>
       <c r="M20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <v>20</v>
+      </c>
       <c r="O20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>100</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>567</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="24"/>
+      <c r="G21" s="23">
+        <v>3</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>101</v>
+      </c>
       <c r="I21" s="23"/>
       <c r="J21" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="26"/>
-      <c r="L21" s="23"/>
+        <v>10</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L21" s="23">
+        <v>50</v>
+      </c>
       <c r="M21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N21" s="27">
+        <v>15</v>
+      </c>
       <c r="O21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>102</v>
+      </c>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
@@ -9185,7 +9409,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382071759</v>
+        <v>44342.629305556</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -10189,21 +10413,29 @@
       <c r="B6" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>585</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" s="23">
+        <v>1</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K6" s="26"/>
-      <c r="L6" s="23"/>
+      <c r="L6" s="23">
+        <v>50</v>
+      </c>
       <c r="M6" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="27"/>
       <c r="O6" s="27" t="s">
@@ -10219,21 +10451,31 @@
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>586</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>1</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="23">
+        <v>2</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="23">
+        <v>50</v>
+      </c>
       <c r="M7" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="27"/>
       <c r="O7" s="27" t="s">
@@ -10249,21 +10491,29 @@
       <c r="B8" s="2">
         <v>183</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>587</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>2</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="23">
+        <v>2</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K8" s="26"/>
-      <c r="L8" s="23"/>
+      <c r="L8" s="23">
+        <v>100</v>
+      </c>
       <c r="M8" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="27"/>
       <c r="O8" s="27" t="s">
@@ -10280,21 +10530,29 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2024</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>588</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>3</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" s="23">
+        <v>2</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="26"/>
-      <c r="L9" s="23"/>
+      <c r="L9" s="23">
+        <v>100</v>
+      </c>
       <c r="M9" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="27"/>
       <c r="O9" s="27" t="s">
@@ -10309,23 +10567,31 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382071759</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44342.629305556</v>
+      </c>
+      <c r="D10" s="2">
+        <v>589</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
+      <c r="G10" s="23">
+        <v>4</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="23">
+        <v>2</v>
+      </c>
       <c r="J10" s="25" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K10" s="26"/>
-      <c r="L10" s="23"/>
+      <c r="L10" s="23">
+        <v>50</v>
+      </c>
       <c r="M10" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N10" s="27"/>
       <c r="O10" s="27" t="s">
@@ -10342,27 +10608,41 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>590</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="37"/>
-      <c r="G11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
+      <c r="G11" s="23">
+        <v>4</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="23">
+        <v>2</v>
+      </c>
       <c r="J11" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="26"/>
-      <c r="L11" s="23"/>
+        <v>19</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" s="23">
+        <v>100</v>
+      </c>
       <c r="M11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N11" s="27">
+        <v>5</v>
+      </c>
       <c r="O11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P11" s="28" t="s">
+        <v>102</v>
+      </c>
       <c r="Q11" s="37"/>
     </row>
     <row r="12" spans="1:17">
@@ -11423,7 +11703,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382071759</v>
+        <v>44342.629305556</v>
       </c>
       <c r="D10" s="2">
         <v>21</v>
@@ -11656,21 +11936,29 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>579</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="23"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" s="23">
+        <v>2</v>
+      </c>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="26"/>
-      <c r="L18" s="23"/>
+      <c r="L18" s="23">
+        <v>100</v>
+      </c>
       <c r="M18" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N18" s="27"/>
       <c r="O18" s="27" t="s">
@@ -11680,21 +11968,31 @@
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>580</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="23"/>
+      <c r="G19" s="23">
+        <v>2</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" s="23">
+        <v>2</v>
+      </c>
       <c r="J19" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="26"/>
-      <c r="L19" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K19" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L19" s="23">
+        <v>100</v>
+      </c>
       <c r="M19" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N19" s="27"/>
       <c r="O19" s="27" t="s">
@@ -11704,21 +12002,27 @@
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>581</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="23"/>
+      <c r="G20" s="23">
+        <v>2</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20" s="23">
+        <v>2</v>
+      </c>
       <c r="J20" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K20" s="26"/>
       <c r="L20" s="23"/>
       <c r="M20" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N20" s="27"/>
       <c r="O20" s="27" t="s">
@@ -11728,21 +12032,31 @@
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>582</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="23"/>
+      <c r="G21" s="23">
+        <v>3</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" s="23">
+        <v>2</v>
+      </c>
       <c r="J21" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="26"/>
-      <c r="L21" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L21" s="23">
+        <v>50</v>
+      </c>
       <c r="M21" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N21" s="27"/>
       <c r="O21" s="27" t="s">
@@ -11752,51 +12066,79 @@
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>583</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="37"/>
-      <c r="G22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="23"/>
+      <c r="G22" s="23">
+        <v>4</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="I22" s="23">
+        <v>2</v>
+      </c>
       <c r="J22" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="26"/>
-      <c r="L22" s="23"/>
+        <v>19</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="L22" s="23">
+        <v>100</v>
+      </c>
       <c r="M22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N22" s="27">
+        <v>5</v>
+      </c>
       <c r="O22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>114</v>
+      </c>
       <c r="Q22" s="37"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>584</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="37"/>
-      <c r="G23" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="23"/>
+      <c r="G23" s="23">
+        <v>4</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="I23" s="23">
+        <v>2</v>
+      </c>
       <c r="J23" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="26"/>
-      <c r="L23" s="23"/>
+        <v>10</v>
+      </c>
+      <c r="K23" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" s="23">
+        <v>50</v>
+      </c>
       <c r="M23" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N23" s="27">
+        <v>10</v>
+      </c>
       <c r="O23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P23" s="28" t="s">
+        <v>102</v>
+      </c>
       <c r="Q23" s="37"/>
     </row>
     <row r="24" spans="1:17">

--- a/public/cohort/fileExcel/xlsxUIT/NE PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/NE PTA en onderwijsprogramma.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -918,6 +918,9 @@
   </si>
   <si>
     <t>woordenboek niet toegestaan</t>
+  </si>
+  <si>
+    <t>kies...</t>
   </si>
   <si>
     <t>NE/K/1, NE/K/3, NE/K/8</t>
@@ -2284,7 +2287,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2638,7 +2641,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.540949074</v>
+        <v>44378.451180556</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3010,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -3027,7 +3030,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -3100,7 +3103,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -3119,7 +3122,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -3192,7 +3195,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -3207,7 +3210,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -3280,7 +3283,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I21" s="45">
         <v>2</v>
@@ -3299,7 +3302,7 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -3372,7 +3375,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I22" s="45">
         <v>2</v>
@@ -3381,7 +3384,7 @@
         <v>19</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L22" s="45">
         <v>100</v>
@@ -3393,10 +3396,10 @@
         <v>5</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -3468,7 +3471,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I23" s="45">
         <v>2</v>
@@ -3489,10 +3492,10 @@
         <v>10</v>
       </c>
       <c r="O23" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P23" s="32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
@@ -3727,7 +3730,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -3744,10 +3747,10 @@
         <v>20</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -3819,14 +3822,14 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
         <v>19</v>
       </c>
       <c r="K31" s="30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L31" s="45">
         <v>100</v>
@@ -3838,10 +3841,10 @@
         <v>20</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -3913,7 +3916,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -3930,10 +3933,10 @@
         <v>15</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -4005,7 +4008,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I33" s="45"/>
       <c r="J33" s="29" t="s">
@@ -4024,10 +4027,10 @@
         <v>15</v>
       </c>
       <c r="O33" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P33" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R33" s="7">
         <f>IF(OR(AND($G33&lt;&gt;instellingen!$G$2,ISBLANK($H33)),AND($G33=instellingen!$G$2,$H33&lt;&gt;"")),1,0)</f>
@@ -4099,7 +4102,7 @@
         <v>3</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I34" s="45"/>
       <c r="J34" s="29" t="s">
@@ -4118,10 +4121,10 @@
         <v>10</v>
       </c>
       <c r="O34" s="31" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="P34" s="32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="R34" s="7">
         <f>IF(OR(AND($G34&lt;&gt;instellingen!$G$2,ISBLANK($H34)),AND($G34=instellingen!$G$2,$H34&lt;&gt;"")),1,0)</f>
@@ -4640,7 +4643,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -4994,7 +4997,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.540949074</v>
+        <v>44378.451180556</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6021,7 +6024,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -6040,10 +6043,10 @@
         <v>10</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -6115,14 +6118,14 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
         <v>19</v>
       </c>
       <c r="K31" s="30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L31" s="45">
         <v>100</v>
@@ -6134,10 +6137,10 @@
         <v>20</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -6209,7 +6212,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -6226,10 +6229,10 @@
         <v>20</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -6301,7 +6304,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I33" s="45"/>
       <c r="J33" s="29" t="s">
@@ -6320,10 +6323,10 @@
         <v>15</v>
       </c>
       <c r="O33" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P33" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R33" s="7">
         <f>IF(OR(AND($G33&lt;&gt;instellingen!$G$2,ISBLANK($H33)),AND($G33=instellingen!$G$2,$H33&lt;&gt;"")),1,0)</f>
@@ -6395,7 +6398,7 @@
         <v>3</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I34" s="45"/>
       <c r="J34" s="29" t="s">
@@ -6414,10 +6417,10 @@
         <v>15</v>
       </c>
       <c r="O34" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P34" s="32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R34" s="7">
         <f>IF(OR(AND($G34&lt;&gt;instellingen!$G$2,ISBLANK($H34)),AND($G34=instellingen!$G$2,$H34&lt;&gt;"")),1,0)</f>
@@ -7465,7 +7468,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.540949074</v>
+        <v>44378.451168981</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7856,10 +7859,10 @@
         <v>1</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -7931,7 +7934,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -7948,10 +7951,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -8023,7 +8026,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -8040,10 +8043,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -8115,7 +8118,7 @@
         <v>2</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
@@ -8132,10 +8135,10 @@
         <v>2</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -8207,7 +8210,7 @@
         <v>3</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I22" s="45"/>
       <c r="J22" s="29" t="s">
@@ -8224,10 +8227,10 @@
         <v>1</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -8299,7 +8302,7 @@
         <v>3</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I23" s="45"/>
       <c r="J23" s="29" t="s">
@@ -8311,11 +8314,11 @@
         <v>11</v>
       </c>
       <c r="N23" s="46"/>
-      <c r="O23" s="31">
-        <v>0</v>
+      <c r="O23" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="P23" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
@@ -9759,7 +9762,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.540949074</v>
+        <v>44378.451168981</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -10150,10 +10153,10 @@
         <v>1</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -10225,7 +10228,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -10242,10 +10245,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -10317,7 +10320,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -10334,10 +10337,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -10409,7 +10412,7 @@
         <v>2</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
@@ -10426,10 +10429,10 @@
         <v>2</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -10501,7 +10504,7 @@
         <v>3</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I22" s="45"/>
       <c r="J22" s="29" t="s">
@@ -10518,10 +10521,10 @@
         <v>1</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -10593,7 +10596,7 @@
         <v>3</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I23" s="45"/>
       <c r="J23" s="29" t="s">
@@ -10605,11 +10608,11 @@
         <v>11</v>
       </c>
       <c r="N23" s="46"/>
-      <c r="O23" s="31">
-        <v>0</v>
+      <c r="O23" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="P23" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
@@ -11699,7 +11702,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2">
         <v>568</v>
@@ -11709,7 +11712,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -11718,7 +11721,7 @@
         <v>19</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L6" s="45">
         <v>100</v>
@@ -11730,10 +11733,10 @@
         <v>5</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -11811,7 +11814,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -11826,7 +11829,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -11905,7 +11908,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -11924,10 +11927,10 @@
         <v>15</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -12006,7 +12009,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -12023,7 +12026,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -12093,7 +12096,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.540949074</v>
+        <v>44378.451168981</v>
       </c>
       <c r="D10" s="2">
         <v>572</v>
@@ -12103,7 +12106,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -12120,7 +12123,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -12200,7 +12203,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -12209,7 +12212,7 @@
         <v>19</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L11" s="45">
         <v>100</v>
@@ -12221,10 +12224,10 @@
         <v>10</v>
       </c>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
@@ -13997,7 +14000,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2">
         <v>7</v>
@@ -14007,7 +14010,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -14016,7 +14019,7 @@
         <v>19</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L6" s="45">
         <v>100</v>
@@ -14028,10 +14031,10 @@
         <v>5</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -14109,7 +14112,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -14124,7 +14127,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -14203,7 +14206,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -14222,10 +14225,10 @@
         <v>15</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -14304,7 +14307,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -14321,7 +14324,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -14391,7 +14394,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.540949074</v>
+        <v>44378.451180556</v>
       </c>
       <c r="D10" s="2">
         <v>11</v>
@@ -14401,7 +14404,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -14418,7 +14421,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -14498,7 +14501,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -14507,7 +14510,7 @@
         <v>19</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L11" s="45">
         <v>100</v>
@@ -14519,10 +14522,10 @@
         <v>10</v>
       </c>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
@@ -14785,7 +14788,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -14802,10 +14805,10 @@
         <v>20</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -14877,7 +14880,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -14896,10 +14899,10 @@
         <v>15</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -14971,14 +14974,14 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
         <v>19</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L20" s="45">
         <v>100</v>
@@ -14990,10 +14993,10 @@
         <v>20</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -15065,7 +15068,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
@@ -15084,10 +15087,10 @@
         <v>15</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -16341,7 +16344,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16695,7 +16698,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.540949074</v>
+        <v>44378.451180556</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -17067,7 +17070,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -17086,10 +17089,10 @@
         <v>15</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -17161,7 +17164,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -17178,10 +17181,10 @@
         <v>20</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -17253,14 +17256,14 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
         <v>19</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L20" s="45">
         <v>100</v>
@@ -17272,10 +17275,10 @@
         <v>20</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -17347,7 +17350,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
@@ -17366,10 +17369,10 @@
         <v>15</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -18623,7 +18626,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D6" s="2">
         <v>585</v>
@@ -18633,7 +18636,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -18650,7 +18653,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -18729,7 +18732,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -18748,7 +18751,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -18827,7 +18830,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -18844,7 +18847,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -18924,7 +18927,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -18941,7 +18944,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -19011,7 +19014,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.540949074</v>
+        <v>44378.451180556</v>
       </c>
       <c r="D10" s="2">
         <v>589</v>
@@ -19021,7 +19024,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -19038,7 +19041,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -19118,7 +19121,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -19127,7 +19130,7 @@
         <v>19</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L11" s="45">
         <v>100</v>
@@ -19139,10 +19142,10 @@
         <v>5</v>
       </c>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
@@ -20917,7 +20920,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D6" s="2">
         <v>17</v>
@@ -20927,7 +20930,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -20944,7 +20947,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -21023,7 +21026,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -21042,7 +21045,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -21121,7 +21124,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -21138,7 +21141,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -21218,7 +21221,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -21235,7 +21238,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -21305,7 +21308,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.540949074</v>
+        <v>44378.451180556</v>
       </c>
       <c r="D10" s="2">
         <v>21</v>
@@ -21315,7 +21318,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -21332,7 +21335,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -21412,7 +21415,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -21421,7 +21424,7 @@
         <v>19</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L11" s="45">
         <v>100</v>
@@ -21433,10 +21436,10 @@
         <v>5</v>
       </c>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
@@ -21699,7 +21702,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -21716,7 +21719,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -21789,7 +21792,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -21808,7 +21811,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -21881,7 +21884,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -21896,7 +21899,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -21969,7 +21972,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I21" s="45">
         <v>2</v>
@@ -21988,7 +21991,7 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -22061,7 +22064,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I22" s="45">
         <v>2</v>
@@ -22070,7 +22073,7 @@
         <v>19</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L22" s="45">
         <v>100</v>
@@ -22082,10 +22085,10 @@
         <v>5</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -22157,7 +22160,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I23" s="45">
         <v>2</v>
@@ -22178,10 +22181,10 @@
         <v>10</v>
       </c>
       <c r="O23" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P23" s="32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
